--- a/itatinga_Nuc_ModelSummaries.xlsx
+++ b/itatinga_Nuc_ModelSummaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="S3" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <si>
     <t>Random effect(s) - σ2 = 0.16
 n observations = 160
-Marginal R2 / Conditional R2 = 0.736/NA</t>
+Marginal R2 / Conditional R2 = 0.736/0.736</t>
   </si>
   <si>
     <t>Beta</t>
@@ -2755,7 +2755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2771,10 +2771,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2806,6 +2809,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3348,17 +3354,17 @@
   <sheetPr/>
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="A1:H136"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.8571428571429" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.8571428571429" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8571428571429" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.1428571428571" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.2857142857143" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.4285714285714" style="4" customWidth="1"/>
@@ -3373,49 +3379,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3424,16 +3430,16 @@
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="M2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -3442,16 +3448,16 @@
       <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -3460,16 +3466,16 @@
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="M4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -3478,16 +3484,16 @@
       <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="M5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3496,20 +3502,20 @@
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="M6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3527,12 +3533,12 @@
       <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="A8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -3544,12 +3550,12 @@
       <c r="H8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="A9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3561,12 +3567,12 @@
       <c r="H9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="A10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3578,11 +3584,11 @@
       <c r="H10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
@@ -3595,11 +3601,11 @@
       <c r="H11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" ht="25.5" spans="1:13">
-      <c r="A12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="C12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
@@ -3612,11 +3618,11 @@
       <c r="H12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" ht="25.5" spans="1:13">
-      <c r="A13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="C13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
@@ -3629,11 +3635,11 @@
       <c r="H13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" ht="25.5" spans="1:13">
-      <c r="A14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="C14" s="8"/>
       <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
@@ -3646,16 +3652,16 @@
       <c r="H14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3673,12 +3679,12 @@
       <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="11"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="8" t="s">
+      <c r="A16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -3690,12 +3696,12 @@
       <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="8" t="s">
+      <c r="A17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -3707,12 +3713,12 @@
       <c r="H17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -3724,12 +3730,12 @@
       <c r="H18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="8" t="s">
+      <c r="A19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -3741,11 +3747,11 @@
       <c r="H19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="C20" s="8"/>
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
@@ -3758,11 +3764,11 @@
       <c r="H20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" ht="25.5" spans="1:13">
-      <c r="A21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="C21" s="8"/>
       <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
@@ -3775,11 +3781,11 @@
       <c r="H21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" ht="25.5" spans="1:13">
-      <c r="A22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="C22" s="8"/>
       <c r="E22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3792,11 +3798,11 @@
       <c r="H22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" ht="25.5" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="C23" s="8"/>
       <c r="E23" s="4" t="s">
         <v>85</v>
       </c>
@@ -3809,16 +3815,16 @@
       <c r="H23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -3836,12 +3842,12 @@
       <c r="H24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="8" t="s">
+      <c r="A25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -3853,12 +3859,12 @@
       <c r="H25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="8" t="s">
+      <c r="A26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -3870,12 +3876,12 @@
       <c r="H26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="8" t="s">
+      <c r="A27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -3887,12 +3893,12 @@
       <c r="H27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="A28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -3904,11 +3910,11 @@
       <c r="H28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="11"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="C29" s="8"/>
       <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
@@ -3921,11 +3927,11 @@
       <c r="H29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="11"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" ht="25.5" spans="1:13">
-      <c r="A30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="C30" s="8"/>
       <c r="E30" s="4" t="s">
         <v>51</v>
       </c>
@@ -3938,11 +3944,11 @@
       <c r="H30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="11"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" ht="25.5" spans="1:13">
-      <c r="A31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="C31" s="8"/>
       <c r="E31" s="4" t="s">
         <v>58</v>
       </c>
@@ -3955,11 +3961,11 @@
       <c r="H31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="11"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" ht="25.5" spans="1:13">
-      <c r="A32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="C32" s="8"/>
       <c r="E32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3972,11 +3978,11 @@
       <c r="H32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" ht="25.5" spans="1:13">
-      <c r="A33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="C33" s="8"/>
       <c r="E33" s="4" t="s">
         <v>117</v>
       </c>
@@ -3989,16 +3995,16 @@
       <c r="H33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="11"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4016,12 +4022,12 @@
       <c r="H34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="11"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="8" t="s">
+      <c r="A35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -4033,12 +4039,12 @@
       <c r="H35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="11"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="8" t="s">
+      <c r="A36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -4050,12 +4056,12 @@
       <c r="H36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="11"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="E37" s="8" t="s">
+      <c r="A37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -4067,12 +4073,12 @@
       <c r="H37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="11"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="8" t="s">
+      <c r="A38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -4084,11 +4090,11 @@
       <c r="H38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="11"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="5"/>
+      <c r="C39" s="8"/>
       <c r="E39" s="4" t="s">
         <v>134</v>
       </c>
@@ -4101,16 +4107,16 @@
       <c r="H39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -4128,12 +4134,12 @@
       <c r="H40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M40" s="11"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="8" t="s">
+      <c r="A41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -4145,12 +4151,12 @@
       <c r="H41" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M41" s="11"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="E42" s="8" t="s">
+      <c r="A42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -4162,12 +4168,12 @@
       <c r="H42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M42" s="11"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="8" t="s">
+      <c r="A43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -4179,12 +4185,12 @@
       <c r="H43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M43" s="11"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="E44" s="8" t="s">
+      <c r="A44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -4196,11 +4202,11 @@
       <c r="H44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M44" s="11"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="5"/>
+      <c r="C45" s="8"/>
       <c r="E45" s="4" t="s">
         <v>134</v>
       </c>
@@ -4213,16 +4219,16 @@
       <c r="H45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -4231,108 +4237,108 @@
       <c r="E46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="E47" s="8" t="s">
+      <c r="A47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="M47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="E48" s="8" t="s">
+      <c r="A48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="10" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="M48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="8" t="s">
+      <c r="A49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>167</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="M49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="5"/>
+      <c r="C50" s="8"/>
       <c r="E50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>170</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="M50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="M50" s="12"/>
     </row>
     <row r="51" ht="25.5" spans="1:13">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -4341,13 +4347,13 @@
       <c r="H51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="11"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="12"/>
     </row>
     <row r="52" ht="25.5" spans="1:13">
-      <c r="A52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="E52" s="8" t="s">
+      <c r="A52" s="5"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -4359,12 +4365,12 @@
       <c r="H52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M52" s="11"/>
+      <c r="M52" s="12"/>
     </row>
     <row r="53" ht="25.5" spans="1:13">
-      <c r="A53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="8" t="s">
+      <c r="A53" s="5"/>
+      <c r="C53" s="8"/>
+      <c r="E53" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -4376,12 +4382,12 @@
       <c r="H53" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M53" s="11"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" ht="25.5" spans="1:13">
-      <c r="A54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="E54" s="8" t="s">
+      <c r="A54" s="5"/>
+      <c r="C54" s="8"/>
+      <c r="E54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -4393,12 +4399,12 @@
       <c r="H54" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M54" s="11"/>
+      <c r="M54" s="12"/>
     </row>
     <row r="55" ht="25.5" spans="1:13">
-      <c r="A55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="E55" s="8" t="s">
+      <c r="A55" s="5"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -4410,11 +4416,11 @@
       <c r="H55" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="M55" s="11"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="5"/>
+      <c r="C56" s="8"/>
       <c r="E56" s="4" t="s">
         <v>192</v>
       </c>
@@ -4427,12 +4433,12 @@
       <c r="H56" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M56" s="11"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" ht="25.5" spans="1:13">
-      <c r="A57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="E57" s="8" t="s">
+      <c r="A57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="9" t="s">
         <v>196</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -4444,12 +4450,12 @@
       <c r="H57" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M57" s="11"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" ht="25.5" spans="1:13">
-      <c r="A58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="E58" s="8" t="s">
+      <c r="A58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -4461,12 +4467,12 @@
       <c r="H58" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M58" s="11"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" ht="25.5" spans="1:13">
-      <c r="A59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="E59" s="8" t="s">
+      <c r="A59" s="5"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="9" t="s">
         <v>203</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -4478,12 +4484,12 @@
       <c r="H59" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M59" s="11"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" ht="25.5" spans="1:13">
-      <c r="A60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="E60" s="8" t="s">
+      <c r="A60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="9" t="s">
         <v>207</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -4495,16 +4501,16 @@
       <c r="H60" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M60" s="11"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>212</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -4519,17 +4525,17 @@
       <c r="G61" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="11"/>
+      <c r="I61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="E62" s="8" t="s">
+      <c r="A62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="E62" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -4538,16 +4544,16 @@
       <c r="G62" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="M62" s="11"/>
+      <c r="I62" s="10"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" ht="25.5" spans="1:13">
-      <c r="A63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="E63" s="8" t="s">
+      <c r="A63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="9" t="s">
         <v>188</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -4556,16 +4562,16 @@
       <c r="G63" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="M63" s="11"/>
+      <c r="I63" s="10"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="E64" s="8" t="s">
+      <c r="A64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -4574,16 +4580,16 @@
       <c r="G64" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I64" s="9"/>
-      <c r="M64" s="11"/>
+      <c r="I64" s="10"/>
+      <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="E65" s="8" t="s">
+      <c r="A65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="E65" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -4592,15 +4598,15 @@
       <c r="G65" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="M65" s="11"/>
+      <c r="I65" s="10"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="6"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="5"/>
+      <c r="C66" s="8"/>
       <c r="E66" s="4" t="s">
         <v>192</v>
       </c>
@@ -4610,16 +4616,16 @@
       <c r="G66" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="M66" s="11"/>
+      <c r="I66" s="10"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" ht="25.5" spans="1:13">
-      <c r="A67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="E67" s="8" t="s">
+      <c r="A67" s="5"/>
+      <c r="C67" s="8"/>
+      <c r="E67" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -4628,16 +4634,16 @@
       <c r="G67" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="M67" s="11"/>
+      <c r="I67" s="10"/>
+      <c r="M67" s="12"/>
     </row>
     <row r="68" ht="25.5" spans="1:13">
-      <c r="A68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="E68" s="8" t="s">
+      <c r="A68" s="5"/>
+      <c r="C68" s="8"/>
+      <c r="E68" s="9" t="s">
         <v>207</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -4646,16 +4652,16 @@
       <c r="G68" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="M68" s="11"/>
+      <c r="I68" s="10"/>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" ht="25.5" spans="1:13">
-      <c r="A69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="E69" s="8" t="s">
+      <c r="A69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="E69" s="9" t="s">
         <v>196</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -4664,16 +4670,16 @@
       <c r="G69" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="M69" s="11"/>
+      <c r="I69" s="10"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" ht="25.5" spans="1:13">
-      <c r="A70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="E70" s="8" t="s">
+      <c r="A70" s="5"/>
+      <c r="C70" s="8"/>
+      <c r="E70" s="9" t="s">
         <v>203</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -4682,20 +4688,20 @@
       <c r="G70" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I70" s="9"/>
-      <c r="M70" s="11"/>
+      <c r="I70" s="10"/>
+      <c r="M70" s="12"/>
     </row>
     <row r="71" ht="25.5" spans="1:13">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -4710,17 +4716,17 @@
       <c r="G71" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="11"/>
+      <c r="I71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="12"/>
     </row>
     <row r="72" ht="25.5" spans="1:13">
-      <c r="A72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="E72" s="8" t="s">
+      <c r="A72" s="5"/>
+      <c r="C72" s="8"/>
+      <c r="E72" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -4729,16 +4735,16 @@
       <c r="G72" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="M72" s="11"/>
+      <c r="I72" s="10"/>
+      <c r="M72" s="12"/>
     </row>
     <row r="73" ht="25.5" spans="1:13">
-      <c r="A73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="E73" s="8" t="s">
+      <c r="A73" s="5"/>
+      <c r="C73" s="8"/>
+      <c r="E73" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -4747,16 +4753,16 @@
       <c r="G73" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="M73" s="11"/>
+      <c r="I73" s="10"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" ht="25.5" spans="1:13">
-      <c r="A74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="E74" s="8" t="s">
+      <c r="A74" s="5"/>
+      <c r="C74" s="8"/>
+      <c r="E74" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -4765,16 +4771,16 @@
       <c r="G74" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="M74" s="11"/>
+      <c r="I74" s="10"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" ht="25.5" spans="1:13">
-      <c r="A75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="E75" s="8" t="s">
+      <c r="A75" s="5"/>
+      <c r="C75" s="8"/>
+      <c r="E75" s="9" t="s">
         <v>188</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -4783,15 +4789,15 @@
       <c r="G75" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="I75" s="9"/>
-      <c r="M75" s="11"/>
+      <c r="I75" s="10"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="6"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="5"/>
+      <c r="C76" s="8"/>
       <c r="E76" s="4" t="s">
         <v>192</v>
       </c>
@@ -4801,16 +4807,16 @@
       <c r="G76" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I76" s="9"/>
-      <c r="M76" s="11"/>
+      <c r="I76" s="10"/>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" ht="25.5" spans="1:13">
-      <c r="A77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="E77" s="8" t="s">
+      <c r="A77" s="5"/>
+      <c r="C77" s="8"/>
+      <c r="E77" s="9" t="s">
         <v>196</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -4819,16 +4825,16 @@
       <c r="G77" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="M77" s="11"/>
+      <c r="I77" s="10"/>
+      <c r="M77" s="12"/>
     </row>
     <row r="78" ht="25.5" spans="1:13">
-      <c r="A78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="E78" s="8" t="s">
+      <c r="A78" s="5"/>
+      <c r="C78" s="8"/>
+      <c r="E78" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -4837,16 +4843,16 @@
       <c r="G78" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="M78" s="11"/>
+      <c r="I78" s="10"/>
+      <c r="M78" s="12"/>
     </row>
     <row r="79" ht="25.5" spans="1:13">
-      <c r="A79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="E79" s="8" t="s">
+      <c r="A79" s="5"/>
+      <c r="C79" s="8"/>
+      <c r="E79" s="9" t="s">
         <v>203</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -4855,16 +4861,16 @@
       <c r="G79" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="M79" s="11"/>
+      <c r="I79" s="10"/>
+      <c r="M79" s="12"/>
     </row>
     <row r="80" ht="25.5" spans="1:13">
-      <c r="A80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="E80" s="8" t="s">
+      <c r="A80" s="5"/>
+      <c r="C80" s="8"/>
+      <c r="E80" s="9" t="s">
         <v>207</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -4873,605 +4879,605 @@
       <c r="G80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="M80" s="11"/>
+      <c r="I80" s="10"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>272</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="14">
         <v>5321</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="11"/>
+      <c r="I81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="E82" s="8" t="s">
+      <c r="A82" s="5"/>
+      <c r="C82" s="8"/>
+      <c r="E82" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="M82" s="11"/>
+      <c r="I82" s="13"/>
+      <c r="M82" s="12"/>
     </row>
     <row r="83" ht="25.5" spans="1:13">
-      <c r="A83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="E83" s="8" t="s">
+      <c r="A83" s="5"/>
+      <c r="C83" s="8"/>
+      <c r="E83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="13">
         <v>-1802</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="M83" s="11"/>
+      <c r="I83" s="13"/>
+      <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="E84" s="8" t="s">
+      <c r="A84" s="5"/>
+      <c r="C84" s="8"/>
+      <c r="E84" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="I84" s="12"/>
-      <c r="M84" s="11"/>
+      <c r="I84" s="13"/>
+      <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="E85" s="8" t="s">
+      <c r="A85" s="5"/>
+      <c r="C85" s="8"/>
+      <c r="E85" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H85" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="M85" s="11"/>
+      <c r="I85" s="13"/>
+      <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="5"/>
+      <c r="C86" s="8"/>
       <c r="E86" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="13">
         <v>-2723</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="H86" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="M86" s="11"/>
+      <c r="I86" s="13"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" ht="25.5" spans="1:13">
-      <c r="A87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="E87" s="8" t="s">
+      <c r="A87" s="5"/>
+      <c r="C87" s="8"/>
+      <c r="E87" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="M87" s="11"/>
+      <c r="I87" s="13"/>
+      <c r="M87" s="12"/>
     </row>
     <row r="88" ht="25.5" spans="1:13">
-      <c r="A88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="E88" s="8" t="s">
+      <c r="A88" s="5"/>
+      <c r="C88" s="8"/>
+      <c r="E88" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="13">
         <v>1346</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="M88" s="11"/>
+      <c r="I88" s="13"/>
+      <c r="M88" s="12"/>
     </row>
     <row r="89" ht="25.5" spans="1:13">
-      <c r="A89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="E89" s="8" t="s">
+      <c r="A89" s="5"/>
+      <c r="C89" s="8"/>
+      <c r="E89" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="M89" s="11"/>
+      <c r="I89" s="13"/>
+      <c r="M89" s="12"/>
     </row>
     <row r="90" ht="25.5" spans="1:13">
-      <c r="A90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="E90" s="8" t="s">
+      <c r="A90" s="5"/>
+      <c r="C90" s="8"/>
+      <c r="E90" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H90" s="12" t="s">
+      <c r="H90" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I90" s="12"/>
-      <c r="M90" s="11"/>
+      <c r="I90" s="13"/>
+      <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="14">
         <v>8314</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="11"/>
+      <c r="I91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="6"/>
-      <c r="C92" s="14"/>
-      <c r="E92" s="8" t="s">
+      <c r="A92" s="5"/>
+      <c r="C92" s="15"/>
+      <c r="E92" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I92" s="12"/>
-      <c r="M92" s="11"/>
+      <c r="I92" s="13"/>
+      <c r="M92" s="12"/>
     </row>
     <row r="93" ht="25.5" spans="1:13">
-      <c r="A93" s="6"/>
-      <c r="C93" s="14"/>
-      <c r="E93" s="8" t="s">
+      <c r="A93" s="5"/>
+      <c r="C93" s="15"/>
+      <c r="E93" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="14">
         <v>-1884</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H93" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="I93" s="12"/>
-      <c r="M93" s="11"/>
+      <c r="I93" s="13"/>
+      <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="6"/>
-      <c r="C94" s="14"/>
-      <c r="E94" s="8" t="s">
+      <c r="A94" s="5"/>
+      <c r="C94" s="15"/>
+      <c r="E94" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H94" s="12" t="s">
+      <c r="H94" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="M94" s="11"/>
+      <c r="I94" s="13"/>
+      <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="6"/>
-      <c r="C95" s="14"/>
-      <c r="E95" s="8" t="s">
+      <c r="A95" s="5"/>
+      <c r="C95" s="15"/>
+      <c r="E95" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="14">
         <v>-1100</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="H95" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="I95" s="12"/>
-      <c r="M95" s="11"/>
+      <c r="I95" s="13"/>
+      <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="6"/>
-      <c r="C96" s="14"/>
+      <c r="A96" s="5"/>
+      <c r="C96" s="15"/>
       <c r="E96" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="14">
         <v>-2858</v>
       </c>
-      <c r="H96" s="12" t="s">
+      <c r="H96" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I96" s="12"/>
-      <c r="M96" s="11"/>
+      <c r="I96" s="13"/>
+      <c r="M96" s="12"/>
     </row>
     <row r="97" ht="25.5" spans="1:13">
-      <c r="A97" s="6"/>
-      <c r="C97" s="14"/>
-      <c r="E97" s="8" t="s">
+      <c r="A97" s="5"/>
+      <c r="C97" s="15"/>
+      <c r="E97" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="H97" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I97" s="12"/>
-      <c r="M97" s="11"/>
+      <c r="I97" s="13"/>
+      <c r="M97" s="12"/>
     </row>
     <row r="98" ht="25.5" spans="1:13">
-      <c r="A98" s="6"/>
-      <c r="C98" s="14"/>
-      <c r="E98" s="8" t="s">
+      <c r="A98" s="5"/>
+      <c r="C98" s="15"/>
+      <c r="E98" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G98" s="12" t="s">
+      <c r="G98" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H98" s="12" t="s">
+      <c r="H98" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="I98" s="12"/>
-      <c r="M98" s="11"/>
+      <c r="I98" s="13"/>
+      <c r="M98" s="12"/>
     </row>
     <row r="99" ht="25.5" spans="1:13">
-      <c r="A99" s="6"/>
-      <c r="C99" s="14"/>
-      <c r="E99" s="8" t="s">
+      <c r="A99" s="5"/>
+      <c r="C99" s="15"/>
+      <c r="E99" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="H99" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I99" s="12"/>
-      <c r="M99" s="11"/>
+      <c r="I99" s="13"/>
+      <c r="M99" s="12"/>
     </row>
     <row r="100" ht="25.5" spans="1:13">
-      <c r="A100" s="6"/>
-      <c r="C100" s="14"/>
-      <c r="E100" s="8" t="s">
+      <c r="A100" s="5"/>
+      <c r="C100" s="15"/>
+      <c r="E100" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I100" s="12"/>
-      <c r="M100" s="11"/>
+      <c r="I100" s="13"/>
+      <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>303</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="6"/>
-      <c r="C102" s="7"/>
+      <c r="A102" s="5"/>
+      <c r="C102" s="8"/>
       <c r="E102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="I102" s="15"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="6"/>
-      <c r="C103" s="7"/>
+      <c r="A103" s="5"/>
+      <c r="C103" s="8"/>
       <c r="E103" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I103" s="15"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="E104" s="8" t="s">
+      <c r="A104" s="5"/>
+      <c r="C104" s="8"/>
+      <c r="E104" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I104" s="15"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="E105" s="8" t="s">
+      <c r="A105" s="5"/>
+      <c r="C105" s="8"/>
+      <c r="E105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="G105" s="16" t="s">
+      <c r="G105" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I105" s="15"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="6"/>
-      <c r="C106" s="7"/>
+      <c r="A106" s="5"/>
+      <c r="C106" s="8"/>
       <c r="E106" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="H106" s="12" t="s">
+      <c r="H106" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I106" s="15"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" ht="25.5" spans="1:9">
-      <c r="A107" s="6"/>
-      <c r="C107" s="7"/>
+      <c r="A107" s="5"/>
+      <c r="C107" s="8"/>
       <c r="E107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="G107" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="I107" s="15"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" ht="25.5" spans="1:9">
-      <c r="A108" s="6"/>
-      <c r="C108" s="7"/>
+      <c r="A108" s="5"/>
+      <c r="C108" s="8"/>
       <c r="E108" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="H108" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I108" s="15"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" ht="25.5" spans="1:9">
-      <c r="A109" s="6"/>
-      <c r="C109" s="7"/>
+      <c r="A109" s="5"/>
+      <c r="C109" s="8"/>
       <c r="E109" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G109" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I109" s="15"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>328</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="H110" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="6"/>
-      <c r="C111" s="7"/>
+      <c r="A111" s="5"/>
+      <c r="C111" s="8"/>
       <c r="E111" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="19" t="s">
         <v>331</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H111" s="12" t="s">
+      <c r="H111" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="6"/>
-      <c r="C112" s="7"/>
+      <c r="A112" s="5"/>
+      <c r="C112" s="8"/>
       <c r="E112" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="16" t="s">
         <v>333</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -5480,17 +5486,17 @@
       <c r="H112" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="E113" s="8" t="s">
+      <c r="A113" s="5"/>
+      <c r="C113" s="8"/>
+      <c r="E113" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="16" t="s">
         <v>336</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -5501,91 +5507,91 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="E114" s="8" t="s">
+      <c r="A114" s="5"/>
+      <c r="C114" s="8"/>
+      <c r="E114" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="G114" s="12" t="s">
+      <c r="G114" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="H114" s="12" t="s">
+      <c r="H114" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="6"/>
-      <c r="C115" s="7"/>
+      <c r="A115" s="5"/>
+      <c r="C115" s="8"/>
       <c r="E115" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="14">
         <v>2000</v>
       </c>
-      <c r="H115" s="12" t="s">
+      <c r="H115" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" spans="1:11">
-      <c r="A116" s="6"/>
-      <c r="C116" s="7"/>
+      <c r="A116" s="5"/>
+      <c r="C116" s="8"/>
       <c r="E116" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="G116" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="H116" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
     </row>
     <row r="117" ht="25.5" spans="1:11">
-      <c r="A117" s="6"/>
-      <c r="C117" s="7"/>
+      <c r="A117" s="5"/>
+      <c r="C117" s="8"/>
       <c r="E117" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="16" t="s">
         <v>346</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="H117" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
     </row>
     <row r="118" ht="25.5" spans="1:8">
-      <c r="A118" s="6"/>
-      <c r="C118" s="7"/>
+      <c r="A118" s="5"/>
+      <c r="C118" s="8"/>
       <c r="E118" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="19" t="s">
         <v>348</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H118" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5596,142 +5602,142 @@
       <c r="B119" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="H119" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="120" spans="3:8">
-      <c r="C120" s="11"/>
+      <c r="C120" s="8"/>
       <c r="E120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F120" s="15" t="s">
+      <c r="F120" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="G120" s="16">
+      <c r="G120" s="17">
         <v>1012</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="16" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="121" spans="3:8">
-      <c r="C121" s="11"/>
+      <c r="C121" s="8"/>
       <c r="E121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="F121" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G121" s="15" t="s">
+      <c r="G121" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="16" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="122" spans="3:8">
-      <c r="C122" s="11"/>
-      <c r="E122" s="8" t="s">
+      <c r="C122" s="8"/>
+      <c r="E122" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="F122" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="G122" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="H122" s="15" t="s">
+      <c r="H122" s="16" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="123" spans="3:8">
-      <c r="C123" s="11"/>
-      <c r="E123" s="8" t="s">
+      <c r="C123" s="8"/>
+      <c r="E123" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="15" t="s">
+      <c r="F123" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="124" spans="3:8">
-      <c r="C124" s="11"/>
+      <c r="C124" s="8"/>
       <c r="E124" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F124" s="16" t="s">
+      <c r="F124" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="17">
         <v>2000</v>
       </c>
-      <c r="H124" s="12" t="s">
+      <c r="H124" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="125" ht="25.5" spans="3:8">
-      <c r="C125" s="11"/>
+      <c r="C125" s="8"/>
       <c r="E125" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="F125" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="G125" s="15" t="s">
+      <c r="G125" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="H125" s="16" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="126" ht="25.5" spans="3:8">
-      <c r="C126" s="11"/>
+      <c r="C126" s="8"/>
       <c r="E126" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F126" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="H126" s="12" t="s">
+      <c r="H126" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="127" ht="25.5" spans="3:8">
-      <c r="C127" s="11"/>
+      <c r="C127" s="8"/>
       <c r="E127" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F127" s="15" t="s">
+      <c r="F127" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="16" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5742,31 +5748,31 @@
       <c r="B128" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="8" t="s">
         <v>368</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="H128" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="129" spans="3:8">
-      <c r="C129" s="11"/>
+      <c r="C129" s="8"/>
       <c r="E129" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F129" s="15" t="s">
+      <c r="F129" s="16" t="s">
         <v>371</v>
       </c>
       <c r="G129" s="4">
@@ -5777,11 +5783,11 @@
       </c>
     </row>
     <row r="130" spans="3:8">
-      <c r="C130" s="11"/>
+      <c r="C130" s="8"/>
       <c r="E130" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="16" t="s">
         <v>373</v>
       </c>
       <c r="G130" s="4">
@@ -5792,11 +5798,11 @@
       </c>
     </row>
     <row r="131" spans="3:8">
-      <c r="C131" s="11"/>
-      <c r="E131" s="8" t="s">
+      <c r="C131" s="8"/>
+      <c r="E131" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="15" t="s">
+      <c r="F131" s="16" t="s">
         <v>374</v>
       </c>
       <c r="G131" s="4" t="s">
@@ -5807,56 +5813,56 @@
       </c>
     </row>
     <row r="132" spans="3:8">
-      <c r="C132" s="11"/>
-      <c r="E132" s="8" t="s">
+      <c r="C132" s="8"/>
+      <c r="E132" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="13" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="133" spans="3:8">
-      <c r="C133" s="11"/>
+      <c r="C133" s="8"/>
       <c r="E133" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G133" s="13">
+      <c r="G133" s="14">
         <v>-1313</v>
       </c>
-      <c r="H133" s="12" t="s">
+      <c r="H133" s="13" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="134" ht="25.5" spans="3:8">
-      <c r="C134" s="11"/>
+      <c r="C134" s="8"/>
       <c r="E134" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F134" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="H134" s="12" t="s">
+      <c r="H134" s="13" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="135" ht="25.5" spans="3:8">
-      <c r="C135" s="11"/>
+      <c r="C135" s="8"/>
       <c r="E135" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="16" t="s">
         <v>385</v>
       </c>
       <c r="G135" s="4" t="s">
@@ -5867,11 +5873,11 @@
       </c>
     </row>
     <row r="136" ht="25.5" spans="3:8">
-      <c r="C136" s="11"/>
+      <c r="C136" s="8"/>
       <c r="E136" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="16" t="s">
         <v>388</v>
       </c>
       <c r="G136" s="4" t="s">
@@ -5882,174 +5888,174 @@
       </c>
     </row>
     <row r="142" spans="2:9">
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="11"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="12"/>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="11"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="12"/>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="11"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="12"/>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="11"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="12"/>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="11"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="12"/>
     </row>
     <row r="148" spans="2:10">
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="11"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="12"/>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="11"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="12"/>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="11"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="12"/>
     </row>
     <row r="151" spans="2:10">
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="11"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="12"/>
     </row>
     <row r="152" spans="2:10">
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="11"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="12"/>
     </row>
     <row r="153" spans="2:9">
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" spans="2:9">
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
     </row>
     <row r="155" spans="2:9">
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="2:9">
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" spans="2:9">
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -6122,7 +6128,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G39:G45 G12:G32 G9:G10" numberStoredAsText="1"/>
+    <ignoredError sqref="G9:G10 G12:G32 G39:G45" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6132,7 +6138,7 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
